--- a/Texts/Город Сокровищ/Все персонажи/Диглетт.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Диглетт.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -76,6 +76,150 @@
   </si>
   <si>
     <t xml:space="preserve"> Âïèíïçîï íîå ðñéäæóòÿ âàò òîïâà\nïá üóïí ðñïòéóû. Îàäåýòû, œóï â óàëïí\nòìôœàå âú íîå òîïâà ðïíïçåóå!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/um0601.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s do a good job again today,\n[CS:N]Loudred[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Давай сегодня хорошенько\nпоработаем, [CS:N]Лаудред[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äàâàê òåãïäîÿ öïñïšåîûëï\nðïñàáïóàåí, [CS:N]Ìàôäñåä[CR]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/um0606.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Team [CS:X]Skull[CR] is kind of scary…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Жуткие это ребята, Команда\n[CS:X]Череп[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Çôóëéå üóï ñåáÿóà, Ëïíàîäà\n[CS:X]Œåñåð[CR]…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hey![K] [hero]!\n[partner]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This is my first time out on an\nexpedition, so I\'m a little nervous.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But let\'s be sure to make this a\nsuccess!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Incidentally…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Do you know anything about the\nSecret Bazaar, [hero]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I haven\'t seen it either, but...[K]\nA rumor tells me that the Secret Bazaar is…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A mysterious facility that\nappears occasionally in dungeons…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You can heal your wounds and\neven buy a Grab Bag there, so I hear…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Several kinds of shops\nare there.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I wonder what other shops can\nbe found there...[K] I\'d love to find out\nfor myself…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Maybe there\'s a chance we can\nfind the Secret Bazaar on our expedition?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ooh, I\'m so excited!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If you happen to find the\nSecret Bazaar, [hero], be sure to tell\nme all about it!</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P01A/um0801.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Привет![K] [hero]!\n[partner]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Это моя первая экспедиция и я\nнемного переживаю.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но я уверен, у нас всё\nполучится!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Кстати...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [hero], ты знаешь\nчто-нибудь о Секретном Базаре?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я его ни разу не видел, но...[K]\nПо слухам, Секретный Базар это...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Таинственное место, которое\nслучайно появляется в подземельях...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Как я слышал, там можно\nзалечить раны и даже купить Мешочек...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Там есть несколько лавочек.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Интересно, что там ещё есть...[K]\nЯ бы с радостью посмотрел...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Может быть, мы сможем найти\nСекретный Базар во время экспедиции?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ух, мне так интересно!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Если ты найдешь Секретный Базар,\n[hero], то расскажи мне о нём!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðñéâåó![K] [hero]!\n[partner]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóï íïÿ ðåñâàÿ üëòðåäéøéÿ é ÿ\nîåíîïãï ðåñåçéâàý.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï ÿ ôâåñåî, ô îàò âòæ\nðïìôœéóòÿ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëòóàóé...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [hero], óú èîàåšû\nœóï-îéáôäû ï Òåëñåóîïí Áàèàñå?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ åãï îé ñàèô îå âéäåì, îï...[K]\nÐï òìôöàí, Òåëñåóîúê Áàèàñ üóï...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óàéîòóâåîîïå íåòóï, ëïóïñïå\nòìôœàêîï ðïÿâìÿåóòÿ â ðïäèåíåìûÿö...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëàë ÿ òìúšàì, óàí íïçîï\nèàìåœéóû ñàîú é äàçå ëôðéóû Íåšïœåë...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óàí åòóû îåòëïìûëï ìàâïœåë.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éîóåñåòîï, œóï óàí åþæ åòóû...[K]\nŸ áú ò ñàäïòóûý ðïòíïóñåì...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íïçåó áúóû, íú òíïçåí îàêóé\nÒåëñåóîúê Áàèàñ âï âñåíÿ üëòðåäéøéé?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôö, íîå óàë éîóåñåòîï!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åòìé óú îàêäåšû Òåëñåóîúê Áàèàñ,\n[hero], óï ñàòòëàçé íîå ï îæí!</t>
   </si>
 </sst>
 </file>
@@ -106,7 +250,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -147,11 +291,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -172,6 +327,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -454,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -537,17 +698,237 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="4">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6">
         <v>481</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="7" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="8">
+        <v>459</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="8">
+        <v>437</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="4">
+        <v>271</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="4">
+        <v>274</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="4">
+        <v>277</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="4">
+        <v>280</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="4">
+        <v>283</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="4">
+        <v>286</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="4">
+        <v>289</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="4">
+        <v>292</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="4">
+        <v>295</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B17" s="4">
+        <v>298</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B18" s="4">
+        <v>301</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="4">
+        <v>304</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B20" s="4">
+        <v>307</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Диглетт.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Диглетт.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -220,6 +220,18 @@
   </si>
   <si>
     <t xml:space="preserve"> Åòìé óú îàêäåšû Òåëñåóîúê Áàèàñ,\n[hero], óï ñàòòëàçé íîå ï îæí!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yes, [CS:N]Loudred[CR]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/um1604.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Да, [CS:N]Лаудред[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äà, [CS:N]Ìàôäñåä[CR]!</t>
   </si>
 </sst>
 </file>
@@ -615,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -875,7 +887,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>298</v>
       </c>
@@ -889,7 +901,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>301</v>
       </c>
@@ -903,7 +915,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
         <v>304</v>
       </c>
@@ -917,18 +929,36 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B20" s="4">
+    <row r="20" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6">
         <v>307</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="7" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="4">
+        <v>252</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Диглетт.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Диглетт.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -96,12 +96,6 @@
     <t xml:space="preserve"> Team [CS:X]Skull[CR] is kind of scary…</t>
   </si>
   <si>
-    <t xml:space="preserve"> Жуткие это ребята, Команда\n[CS:X]Череп[CR]...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Çôóëéå üóï ñåáÿóà, Ëïíàîäà\n[CS:X]Œåñåð[CR]…</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Hey![K] [hero]!\n[partner]!</t>
   </si>
   <si>
@@ -232,6 +226,87 @@
   </si>
   <si>
     <t xml:space="preserve"> Äà, [CS:N]Ìàôäñåä[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Жуткие эти ребята, Команда\n[CS:X]Череп[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Çôóëéå üóé ñåáÿóà, Ëïíàîäà\n[CS:X]Œåñåð[CR]…</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um2101.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m helping to get word out\nabout what really happened.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The others are finding it hard to\nbelieve right away…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But I\'ll do my best!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я помогаю распространять\nинформацию о том, что произошло на самом\nделе.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Всем трудно сходу в неё\nповерить...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но я стараюсь, как могу!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ðïíïãàý ñàòðñïòóñàîÿóû\néîõïñíàøéý ï óïí, œóï ðñïéèïšìï îà òàíïí\näåìå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âòåí óñôäîï òöïäô â îåæ\nðïâåñéóû...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï ÿ òóàñàýòû, ëàë íïãô!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ugh...[K] Our team was wiped out\nas well.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCRIPT/D25P11A/um2301.ssb </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But we won\'t give up! We\'ll do\nour best!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ух...[K] Нашу команду тоже\nпобедили.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но мы не сдадимся![K] Мы сделаем\nвсё, что в наших силах!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôö...[K] Îàšô ëïíàîäô óïçå\nðïáåäéìé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï íú îå òäàäéíòÿ![K] Íú òäåìàåí\nâòæ, œóï â îàšéö òéìàö!</t>
+  </si>
+  <si>
+    <t>SCRIPT/D25P11A/um2305.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh, [partner] and\n[hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> My thoughts go with you![K]\nGood luck!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/um2402.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ох, [partner] и \n[hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Все мои мысли только о вас![K]\nУдачи!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïö, [partner] é \n[hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âòå íïé íúòìé óïìûëï ï âàò![K]\nÔäàœé!</t>
   </si>
 </sst>
 </file>
@@ -627,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -752,27 +827,27 @@
         <v>24</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B8" s="4">
         <v>271</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -780,13 +855,13 @@
         <v>274</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -794,13 +869,13 @@
         <v>277</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -808,13 +883,13 @@
         <v>280</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -822,13 +897,13 @@
         <v>283</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -836,13 +911,13 @@
         <v>286</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -850,13 +925,13 @@
         <v>289</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -864,13 +939,13 @@
         <v>292</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -878,13 +953,13 @@
         <v>295</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -892,13 +967,13 @@
         <v>298</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -906,13 +981,13 @@
         <v>301</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -920,13 +995,13 @@
         <v>304</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -935,30 +1010,141 @@
         <v>307</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="B21" s="8">
+        <v>252</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="4">
-        <v>252</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>70</v>
+    </row>
+    <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="4">
+        <v>224</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="4">
+        <v>227</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6">
+        <v>230</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="4">
+        <v>201</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="6">
+        <v>205</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="4">
+        <v>179</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B28" s="4">
+        <v>182</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Диглетт.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Диглетт.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -307,6 +307,39 @@
   </si>
   <si>
     <t xml:space="preserve"> Âòå íïé íúòìé óïìûëï ï âàò![K]\nÔäàœé!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/um2502.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Excuse me?![K] The grand master of\nall things bad?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I...I really can\'t tell you...[K]\nPlease, I just can\'t…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m so sorry…</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/us0103.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что, простите?![K] Гранд мастер\nвсего самого плохого?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я... Я правда не могу вам\nсказать...[K] Прошу, я совсем не могу...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мне очень жаль...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï, ðñïòóéóå?![K] Ãñàîä íàòóåñ\nâòåãï òàíïãï ðìïöïãï?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ... Ÿ ðñàâäà îå íïãô âàí\nòëàèàóû...[K] Ðñïšô, ÿ òïâòåí îå íïãô...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íîå ïœåîû çàìû...</t>
   </si>
 </sst>
 </file>
@@ -702,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1133,18 +1166,66 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B28" s="4">
+    <row r="28" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="6">
         <v>182</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="7" t="s">
         <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="4">
+        <v>154</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B30" s="4">
+        <v>157</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="4">
+        <v>160</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Диглетт.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Диглетт.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -340,6 +340,57 @@
   </si>
   <si>
     <t xml:space="preserve"> Íîå ïœåîû çàìû...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ugh...[K] I would love to go too…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But [CS:N]Loudred[CR] is all set and raring\nto go...[K] He\'s beaten me to the punch.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'ll have to stay behind at the\nguild to look after the sentry post.</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/us0402.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ух...[K] Я бы с радостью пошёл со\nвсеми...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но [CS:N]Лаудред[CR] уже рвётся пойти\nсам...[K] Он не оставил мне другого выбора.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мне придётся остаться в гильдии\nна посту стража.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôö...[K] Ÿ áú ò ñàäïòóûý ðïšæì òï\nâòåíé...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï [CS:N]Ìàôäñåä[CR] ôçå ñâæóòÿ ðïêóé\nòàí...[K] Ïî îå ïòóàâéì íîå äñôãïãï âúáïñà.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íîå ðñéäæóòÿ ïòóàóûòÿ â ãéìûäéé\nîà ðïòóô òóñàçà.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It sounds like a challenging\ndungeon, that [CS:P]Aegis Cave[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Похоже, [CS:P]Пещера Эгиды[CR] - непростое\nподземелье.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïöïçå, [CS:P]Ðåþåñà Üãéäú[CR] - îåðñïòóïå\nðïäèåíåìûå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I hope your team does well,\n[hero]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/us2201.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Надеюсь, твоя группа\nсправится, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàäåýòû, óâïÿ ãñôððà\nòðñàâéóòÿ, [hero]!</t>
   </si>
 </sst>
 </file>
@@ -735,10 +786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1215,17 +1266,95 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="4">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6">
         <v>160</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="7" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" s="4">
+        <v>110</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B33" s="4">
+        <v>113</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B34" s="6">
+        <v>116</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6">
+        <v>87</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" s="4">
+        <v>68</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Диглетт.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Диглетт.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -391,6 +391,57 @@
   </si>
   <si>
     <t xml:space="preserve"> Îàäåýòû, óâïÿ ãñôððà\nòðñàâéóòÿ, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m glad to see your team back\nsafely, [hero]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/us2204.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я рад, что твоя группа вернулась\nв целости и сохранности, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ñàä, œóï óâïÿ ãñôððà âåñîôìàòû\nâ øåìïòóé é òïöñàîîïòóé, [hero]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/us2301.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh, [hero] and\n[partner]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m happy to see you! Are you\nvisiting us?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> By the way...[K] Have you seen my\ndad anywhere?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I haven\'t seen him for a while.\nI\'m beginning to get worried…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> О, [hero] и [partner]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я рад вас видеть! Навещаете\nнас?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Кстати...[K] Вы, случаем, не видели\nгде-нибудь моего отца?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я давно его не видел. Я начинаю\nбеспокоиться...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ï, [hero] é [partner]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ñàä âàò âéäåóû! Îàâåþàåóå\nîàò?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëòóàóé...[K] Âú, òìôœàåí, îå âéäåìé\nãäå-îéáôäû íïåãï ïóøà?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ äàâîï åãï îå âéäåì. Ÿ îàœéîàý\náåòðïëïéóûòÿ...</t>
   </si>
 </sst>
 </file>
@@ -786,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1341,20 +1392,96 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="8">
         <v>68</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="9" t="s">
         <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37" s="8">
+        <v>49</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B38" s="4">
+        <v>19</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B39" s="4">
+        <v>22</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B40" s="4">
+        <v>25</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B41" s="4">
+        <v>29</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
